--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H2">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I2">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J2">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3701153333333333</v>
+        <v>0.1404576666666667</v>
       </c>
       <c r="N2">
-        <v>1.110346</v>
+        <v>0.421373</v>
       </c>
       <c r="O2">
-        <v>0.3716314658367921</v>
+        <v>0.183302244487095</v>
       </c>
       <c r="P2">
-        <v>0.3716314658367921</v>
+        <v>0.1833022444870949</v>
       </c>
       <c r="Q2">
-        <v>15.99368311147689</v>
+        <v>0.6484049332237779</v>
       </c>
       <c r="R2">
-        <v>143.943148003292</v>
+        <v>5.835644399014</v>
       </c>
       <c r="S2">
-        <v>0.05528749345761828</v>
+        <v>0.00335962517349322</v>
       </c>
       <c r="T2">
-        <v>0.05528749345761828</v>
+        <v>0.00335962517349322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H3">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I3">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J3">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5312866666666668</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N3">
         <v>1.59386</v>
       </c>
       <c r="O3">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="P3">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="Q3">
-        <v>22.95833169485779</v>
+        <v>2.452617246164444</v>
       </c>
       <c r="R3">
-        <v>206.62498525372</v>
+        <v>22.07355521548</v>
       </c>
       <c r="S3">
-        <v>0.07936312133547518</v>
+        <v>0.01270791479051554</v>
       </c>
       <c r="T3">
-        <v>0.07936312133547516</v>
+        <v>0.01270791479051554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H4">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I4">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J4">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.283555</v>
       </c>
       <c r="O4">
-        <v>0.09490551620427469</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="P4">
-        <v>0.0949055162042747</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="Q4">
-        <v>4.084392445845555</v>
+        <v>0.4363318504988889</v>
       </c>
       <c r="R4">
-        <v>36.75953201261</v>
+        <v>3.92698665449</v>
       </c>
       <c r="S4">
-        <v>0.01411906307346985</v>
+        <v>0.002260796292287047</v>
       </c>
       <c r="T4">
-        <v>0.01411906307346985</v>
+        <v>0.002260796292287048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J5">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3701153333333333</v>
+        <v>0.1404576666666667</v>
       </c>
       <c r="N5">
-        <v>1.110346</v>
+        <v>0.421373</v>
       </c>
       <c r="O5">
-        <v>0.3716314658367921</v>
+        <v>0.183302244487095</v>
       </c>
       <c r="P5">
-        <v>0.3716314658367921</v>
+        <v>0.1833022444870949</v>
       </c>
       <c r="Q5">
-        <v>87.98063602208177</v>
+        <v>33.38838933317422</v>
       </c>
       <c r="R5">
-        <v>791.8257241987359</v>
+        <v>300.495503998568</v>
       </c>
       <c r="S5">
-        <v>0.3041343763387074</v>
+        <v>0.172997563032747</v>
       </c>
       <c r="T5">
-        <v>0.3041343763387075</v>
+        <v>0.172997563032747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J6">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5312866666666668</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N6">
         <v>1.59386</v>
       </c>
       <c r="O6">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="P6">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="Q6">
-        <v>126.2929001681956</v>
+        <v>126.2929001681955</v>
       </c>
       <c r="R6">
         <v>1136.63610151376</v>
       </c>
       <c r="S6">
-        <v>0.4365734798623244</v>
+        <v>0.6543701087050526</v>
       </c>
       <c r="T6">
-        <v>0.4365734798623244</v>
+        <v>0.6543701087050527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J7">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.283555</v>
       </c>
       <c r="O7">
-        <v>0.09490551620427469</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="P7">
-        <v>0.0949055162042747</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="Q7">
         <v>22.46808584643111</v>
@@ -880,10 +880,10 @@
         <v>202.21277261788</v>
       </c>
       <c r="S7">
-        <v>0.07766842325070041</v>
+        <v>0.1164154418668272</v>
       </c>
       <c r="T7">
-        <v>0.07766842325070042</v>
+        <v>0.1164154418668272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3701153333333333</v>
+        <v>0.1404576666666667</v>
       </c>
       <c r="N8">
-        <v>1.110346</v>
+        <v>0.421373</v>
       </c>
       <c r="O8">
-        <v>0.3716314658367921</v>
+        <v>0.183302244487095</v>
       </c>
       <c r="P8">
-        <v>0.3716314658367921</v>
+        <v>0.1833022444870949</v>
       </c>
       <c r="Q8">
-        <v>3.532017781563111</v>
+        <v>1.340390228514889</v>
       </c>
       <c r="R8">
-        <v>31.788160034068</v>
+        <v>12.063512056634</v>
       </c>
       <c r="S8">
-        <v>0.01220959604046636</v>
+        <v>0.006945056280854669</v>
       </c>
       <c r="T8">
-        <v>0.01220959604046636</v>
+        <v>0.006945056280854669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5312866666666668</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N9">
         <v>1.59386</v>
       </c>
       <c r="O9">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="P9">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="Q9">
-        <v>5.070078931542223</v>
+        <v>5.070078931542222</v>
       </c>
       <c r="R9">
-        <v>45.63071038388001</v>
+        <v>45.63071038387999</v>
       </c>
       <c r="S9">
-        <v>0.01752641676113367</v>
+        <v>0.02626994943625487</v>
       </c>
       <c r="T9">
-        <v>0.01752641676113367</v>
+        <v>0.02626994943625487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.283555</v>
       </c>
       <c r="O10">
-        <v>0.09490551620427469</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="P10">
-        <v>0.0949055162042747</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="Q10">
         <v>0.9019902823544445</v>
@@ -1066,10 +1066,10 @@
         <v>8.11791254119</v>
       </c>
       <c r="S10">
-        <v>0.003118029880104435</v>
+        <v>0.004673544421967581</v>
       </c>
       <c r="T10">
-        <v>0.003118029880104436</v>
+        <v>0.004673544421967582</v>
       </c>
     </row>
   </sheetData>
